--- a/PDP.xlsx
+++ b/PDP.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E90EB2-7857-4D13-A26D-F0D237407716}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{F4E90EB2-7857-4D13-A26D-F0D237407716}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{CE886062-DC5F-45A6-BA48-1C77FD0EEF97}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>#</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Create instance with Jenkins server aws cli with nginx</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -395,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -406,7 +409,7 @@
     <col min="2" max="2" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,54 +417,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="6" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>5</v>
       </c>
     </row>

--- a/PDP.xlsx
+++ b/PDP.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{F4E90EB2-7857-4D13-A26D-F0D237407716}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{CE886062-DC5F-45A6-BA48-1C77FD0EEF97}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB2E12C-DC14-4D6E-BE94-7594507FA7BA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>#</t>
   </si>
@@ -50,6 +50,18 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Configure Ansible by roles</t>
+  </si>
+  <si>
+    <t>Bootstrap created instance by ansible playbook from github</t>
+  </si>
+  <si>
+    <t>Playbook install java + tomcat + nginx on created instance and  show main page ip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filters query aws </t>
   </si>
 </sst>
 </file>
@@ -80,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -103,17 +115,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -398,18 +430,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -428,7 +460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -439,43 +471,74 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/PDP.xlsx
+++ b/PDP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB2E12C-DC14-4D6E-BE94-7594507FA7BA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B505B8-D236-4EC8-9D24-66C5E474EA7F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>#</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t xml:space="preserve">Filters query aws </t>
+  </si>
+  <si>
+    <t>Create instance with zabbix agent, config auto discovery (ansible) create basic monitoring template</t>
+  </si>
+  <si>
+    <t>Basic zabbix configuration types</t>
   </si>
 </sst>
 </file>
@@ -130,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -141,13 +147,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -430,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -504,6 +513,9 @@
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
@@ -512,6 +524,9 @@
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
@@ -520,25 +535,49 @@
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="3" t="s">
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="6" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="3" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PDP.xlsx
+++ b/PDP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B505B8-D236-4EC8-9D24-66C5E474EA7F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3254C7A4-5C64-497E-8781-3D2927627A68}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>#</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Basic zabbix configuration types</t>
+  </si>
+  <si>
+    <t>Create script that will delete agent from list after instance terminate code.</t>
   </si>
 </sst>
 </file>
@@ -136,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -153,11 +156,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,7 +442,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -543,17 +543,21 @@
       <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
+    <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">

--- a/PDP.xlsx
+++ b/PDP.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3254C7A4-5C64-497E-8781-3D2927627A68}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9171450D-3B63-45A1-B834-AD02ACAE1623}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>#</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>Create script that will delete agent from list after instance terminate code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dockerfile dockerhub </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install Docker( create container with nginx wordpress php and mysql via dockerfile ) </t>
   </si>
 </sst>
 </file>
@@ -439,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -555,33 +561,46 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
-      <c r="B12" s="3"/>
+    <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="3" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/PDP.xlsx
+++ b/PDP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9171450D-3B63-45A1-B834-AD02ACAE1623}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17F3C85-7B3C-4E87-A369-862B22C4B893}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>#</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t xml:space="preserve">Install Docker( create container with nginx wordpress php and mysql via dockerfile ) </t>
+  </si>
+  <si>
+    <t>Teamcity features and java heap swap cache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create two containers in docker(1 teamcity 2 agent) </t>
   </si>
 </sst>
 </file>
@@ -445,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -568,39 +574,55 @@
       <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="3"/>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="3" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/PDP.xlsx
+++ b/PDP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17F3C85-7B3C-4E87-A369-862B22C4B893}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF99A44-EC28-4026-A546-BE38636FA067}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>#</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t xml:space="preserve">Create two containers in docker(1 teamcity 2 agent) </t>
+  </si>
+  <si>
+    <t>Create build steps: 1 Build app 2 Deploy app 3 docker container with tomcat and mysql 4 configure GitHook</t>
+  </si>
+  <si>
+    <t>Githook webhook and pom files</t>
   </si>
 </sst>
 </file>
@@ -451,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -558,6 +564,9 @@
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
@@ -565,6 +574,9 @@
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.35">
@@ -585,10 +597,17 @@
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="6"/>
-      <c r="B14" s="3"/>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
@@ -623,6 +642,11 @@
     <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
